--- a/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
+++ b/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Desktop\Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE45F5-B6AD-4137-BABA-7BB43AAD61F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD664FC-8E1E-42E8-B5F9-52E789881FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>Task: Continuous Integration</t>
+  </si>
+  <si>
+    <t>Task: Implement live location</t>
   </si>
 </sst>
 </file>
@@ -468,13 +474,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.829999999999998</c:v>
+                  <c:v>27.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -608,7 +614,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -967,8 +973,8 @@
   <dimension ref="B1:AD153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1143,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1145,7 +1151,9 @@
       <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1192,7 +1200,9 @@
       <c r="I5" s="9">
         <v>4</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -1239,7 +1249,9 @@
       <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1278,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1286,7 +1298,9 @@
       <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -1372,7 +1386,9 @@
       <c r="I9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -1551,7 +1567,9 @@
       <c r="I14" s="9">
         <v>0.83</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9">
+        <v>0.5</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -1598,7 +1616,9 @@
       <c r="I15" s="9">
         <v>0</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -1746,7 +1766,9 @@
       <c r="I19" s="9">
         <v>1</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -1785,7 +1807,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
@@ -1793,7 +1815,9 @@
       <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -1840,7 +1864,9 @@
       <c r="I21" s="9">
         <v>5</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9">
+        <v>5</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -1957,7 +1983,9 @@
       <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -1980,15 +2008,33 @@
       <c r="AD24" s="4"/>
     </row>
     <row r="25" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -2136,7 +2182,9 @@
       <c r="I29" s="9">
         <v>2</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="9">
+        <v>2</v>
+      </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2183,7 +2231,9 @@
       <c r="I30" s="9">
         <v>1</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -2975,7 +3025,7 @@
         <v>54</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H54" s="9">
         <v>3</v>
@@ -2983,7 +3033,9 @@
       <c r="I54" s="9">
         <v>1</v>
       </c>
-      <c r="J54" s="9"/>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -3006,15 +3058,33 @@
       <c r="AD54" s="4"/>
     </row>
     <row r="55" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="9">
+        <v>6</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="9">
+        <v>3</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="9">
+        <v>6</v>
+      </c>
+      <c r="I55" s="9">
+        <v>6</v>
+      </c>
+      <c r="J55" s="9">
+        <v>6</v>
+      </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -3109,15 +3179,15 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5">
         <f>SUM(H3:H57)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I58" s="5">
         <f>SUM(I4:I57)</f>
-        <v>19.829999999999998</v>
+        <v>27.83</v>
       </c>
       <c r="J58" s="5">
         <f>SUM(J3:J57)</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="K58" s="5">
         <f>SUM(K3:K57)</f>

--- a/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
+++ b/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Desktop\Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD664FC-8E1E-42E8-B5F9-52E789881FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCEB0B-24B9-4009-B108-F55E6936CECD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Agile Sprint Backlog - BLANK" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog - BLANK'!$B$2:$X$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog - BLANK'!$B$2:$X$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -84,18 +84,6 @@
     <t>User Story #6: As a user, I want the Map position placeholders to show price so I can easily see how much the procedure will cost at a hospital.</t>
   </si>
   <si>
-    <t>User Story #7: As a developer, I want to be able to edit data in data set so information can be up to date.</t>
-  </si>
-  <si>
-    <t>User Story #8: As a developer, I want to be able to add new data to data set so more information can be used.</t>
-  </si>
-  <si>
-    <t>User Story #9: As a developer, I want the results displayed to take into account the users past activity.</t>
-  </si>
-  <si>
-    <t>User Story #10: As a developer I want to be able to delete data from the data set in case it is redundant.</t>
-  </si>
-  <si>
     <t>User Story #11: As a user with disabilities, I would want the software to be easy and accessible for myself to use.</t>
   </si>
   <si>
@@ -214,6 +202,12 @@
   </si>
   <si>
     <t>Task: Implement live location</t>
+  </si>
+  <si>
+    <t>Task: Approve/Finalise UI features</t>
+  </si>
+  <si>
+    <t>Task: Spike - Research how to let the user to select something from a list of results</t>
   </si>
 </sst>
 </file>
@@ -469,21 +463,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog - BLANK'!$H$58:$N$58</c:f>
+              <c:f>'Agile Sprint Backlog - BLANK'!$H$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.83</c:v>
+                  <c:v>26.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -614,7 +608,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>403860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -970,11 +964,11 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD153"/>
+  <dimension ref="B1:AD123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1041,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -1097,10 +1091,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1128,22 +1122,22 @@
     </row>
     <row r="4" spans="2:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1154,7 +1148,9 @@
       <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1177,22 +1173,22 @@
     </row>
     <row r="5" spans="2:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9">
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" s="9">
         <v>4</v>
@@ -1203,7 +1199,9 @@
       <c r="J5" s="9">
         <v>4</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1226,22 +1224,22 @@
     </row>
     <row r="6" spans="2:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9">
         <v>6</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1252,7 +1250,9 @@
       <c r="J6" s="9">
         <v>1</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1275,22 +1275,22 @@
     </row>
     <row r="7" spans="2:30" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9">
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1301,7 +1301,9 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1332,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1363,22 +1365,22 @@
     </row>
     <row r="9" spans="2:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9">
         <v>7</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
@@ -1389,7 +1391,9 @@
       <c r="J9" s="9">
         <v>1</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1410,20 +1414,28 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+    <row r="10" spans="2:30" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1441,17 +1453,37 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+    <row r="11" spans="2:30" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1472,17 +1504,37 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+    <row r="12" spans="2:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1503,28 +1555,40 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="2:30" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
+    <row r="13" spans="2:30" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9">
         <v>5</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1542,38 +1606,28 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="2:30" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9">
+    <row r="14" spans="2:30" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.83</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1591,35 +1645,37 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="2:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1640,17 +1696,37 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+    <row r="16" spans="2:30" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1671,17 +1747,37 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+    <row r="17" spans="2:30" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1702,20 +1798,20 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="2:30" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1741,35 +1837,37 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="2:30" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E19" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1790,35 +1888,37 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="2:30" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="I20" s="9">
+        <v>2</v>
+      </c>
+      <c r="J20" s="9">
         <v>1</v>
       </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9">
+        <v>0.5</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1839,38 +1939,28 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="2:30" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="9">
-        <v>5</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="9">
-        <v>5</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="9">
-        <v>5</v>
-      </c>
-      <c r="I21" s="9">
-        <v>5</v>
-      </c>
-      <c r="J21" s="9">
-        <v>5</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+    <row r="21" spans="2:30" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1888,17 +1978,37 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+    <row r="22" spans="2:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="9">
+        <v>7</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -1919,28 +2029,40 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="2:30" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8">
+    <row r="23" spans="2:30" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9">
         <v>4</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="F23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1958,38 +2080,28 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="2:30" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="9">
+    <row r="24" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <v>3</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2007,12 +2119,12 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
     </row>
-    <row r="25" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C25" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>37</v>
@@ -2021,21 +2133,23 @@
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H25" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2057,16 +2171,36 @@
       <c r="AD25" s="4"/>
     </row>
     <row r="26" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9">
+        <v>3</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2088,16 +2222,36 @@
       <c r="AD26" s="4"/>
     </row>
     <row r="27" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="9">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2</v>
+      </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2118,28 +2272,43 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="2:30" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8">
-        <v>2</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+    <row r="28" spans="2:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
+        <f>SUM(H3:H27)</f>
+        <v>34</v>
+      </c>
+      <c r="I28" s="5">
+        <f>SUM(I4:I27)</f>
+        <v>26.83</v>
+      </c>
+      <c r="J28" s="5">
+        <f>SUM(J3:J27)</f>
+        <v>20.5</v>
+      </c>
+      <c r="K28" s="5">
+        <f>SUM(K3:K27)</f>
+        <v>10</v>
+      </c>
+      <c r="L28" s="5">
+        <f>SUM(L3:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <f>SUM(M3:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <f>SUM(N3:N27)</f>
+        <v>0</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2157,38 +2326,20 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
     </row>
-    <row r="29" spans="2:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="9">
-        <v>7</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="9">
-        <v>2</v>
-      </c>
-      <c r="I29" s="9">
-        <v>2</v>
-      </c>
-      <c r="J29" s="9">
-        <v>2</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+    <row r="29" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2206,38 +2357,20 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
     </row>
-    <row r="30" spans="2:30" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="9">
-        <v>4</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2255,20 +2388,20 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
     </row>
-    <row r="31" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2286,20 +2419,20 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
     </row>
-    <row r="32" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2317,28 +2450,20 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
     </row>
-    <row r="33" spans="2:30" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2356,20 +2481,20 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
     </row>
-    <row r="34" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -2387,20 +2512,20 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -2418,20 +2543,20 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
     </row>
-    <row r="36" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -2449,20 +2574,20 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
     </row>
-    <row r="37" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -2480,28 +2605,20 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
     </row>
-    <row r="38" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8">
-        <v>1</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -2519,20 +2636,20 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
     </row>
-    <row r="39" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -2550,20 +2667,20 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
     </row>
-    <row r="40" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -2581,20 +2698,20 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
     </row>
-    <row r="41" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -2612,20 +2729,20 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
     </row>
-    <row r="42" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -2643,28 +2760,20 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
     </row>
-    <row r="43" spans="2:30" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -2682,20 +2791,20 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
     </row>
-    <row r="44" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -2713,20 +2822,20 @@
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
     </row>
-    <row r="45" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -2744,20 +2853,20 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
     </row>
-    <row r="46" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -2775,20 +2884,20 @@
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
     </row>
-    <row r="47" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -2806,28 +2915,20 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
     </row>
-    <row r="48" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -2845,20 +2946,20 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
     </row>
-    <row r="49" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -2876,20 +2977,20 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
     </row>
-    <row r="50" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -2907,20 +3008,20 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
     </row>
-    <row r="51" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -2938,20 +3039,20 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
     </row>
-    <row r="52" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -2969,28 +3070,20 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
     </row>
-    <row r="53" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8">
-        <v>3</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -3008,38 +3101,20 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
     </row>
-    <row r="54" spans="2:30" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="9">
-        <v>3</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="9">
-        <v>3</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="9">
-        <v>3</v>
-      </c>
-      <c r="I54" s="9">
-        <v>1</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -3057,38 +3132,20 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
     </row>
-    <row r="55" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="9">
-        <v>6</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="9">
-        <v>3</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="9">
-        <v>6</v>
-      </c>
-      <c r="I55" s="9">
-        <v>6</v>
-      </c>
-      <c r="J55" s="9">
-        <v>6</v>
-      </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -3106,20 +3163,20 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
     </row>
-    <row r="56" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -3137,20 +3194,20 @@
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
     </row>
-    <row r="57" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
@@ -3168,43 +3225,20 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
     </row>
-    <row r="58" spans="2:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5">
-        <f>SUM(H3:H57)</f>
-        <v>35</v>
-      </c>
-      <c r="I58" s="5">
-        <f>SUM(I4:I57)</f>
-        <v>27.83</v>
-      </c>
-      <c r="J58" s="5">
-        <f>SUM(J3:J57)</f>
-        <v>22.5</v>
-      </c>
-      <c r="K58" s="5">
-        <f>SUM(K3:K57)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="5">
-        <f>SUM(L3:L57)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="5">
-        <f>SUM(M3:M57)</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="5">
-        <f>SUM(N3:N57)</f>
-        <v>0</v>
-      </c>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -3222,7 +3256,7 @@
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
     </row>
-    <row r="59" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -5237,936 +5271,6 @@
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
     </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-      <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
-      <c r="AD124" s="4"/>
-    </row>
-    <row r="125" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-    </row>
-    <row r="126" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
-      <c r="AD126" s="4"/>
-    </row>
-    <row r="127" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
-      <c r="AD127" s="4"/>
-    </row>
-    <row r="128" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AB128" s="4"/>
-      <c r="AC128" s="4"/>
-      <c r="AD128" s="4"/>
-    </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-    </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="4"/>
-    </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
-      <c r="AD131" s="4"/>
-    </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
-      <c r="AD132" s="4"/>
-    </row>
-    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="4"/>
-    </row>
-    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
-      <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-      <c r="AB134" s="4"/>
-      <c r="AC134" s="4"/>
-      <c r="AD134" s="4"/>
-    </row>
-    <row r="135" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-    </row>
-    <row r="136" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
-      <c r="AD136" s="4"/>
-    </row>
-    <row r="137" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="4"/>
-    </row>
-    <row r="138" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
-      <c r="AD138" s="4"/>
-    </row>
-    <row r="139" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-      <c r="AB139" s="4"/>
-      <c r="AC139" s="4"/>
-      <c r="AD139" s="4"/>
-    </row>
-    <row r="140" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-      <c r="AB140" s="4"/>
-      <c r="AC140" s="4"/>
-      <c r="AD140" s="4"/>
-    </row>
-    <row r="141" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-      <c r="AB141" s="4"/>
-      <c r="AC141" s="4"/>
-      <c r="AD141" s="4"/>
-    </row>
-    <row r="142" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-      <c r="AB142" s="4"/>
-      <c r="AC142" s="4"/>
-      <c r="AD142" s="4"/>
-    </row>
-    <row r="143" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
-      <c r="AB143" s="4"/>
-      <c r="AC143" s="4"/>
-      <c r="AD143" s="4"/>
-    </row>
-    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B144" s="4"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
-      <c r="AA144" s="4"/>
-      <c r="AB144" s="4"/>
-      <c r="AC144" s="4"/>
-      <c r="AD144" s="4"/>
-    </row>
-    <row r="145" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-      <c r="AB145" s="4"/>
-      <c r="AC145" s="4"/>
-      <c r="AD145" s="4"/>
-    </row>
-    <row r="146" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
-      <c r="AB146" s="4"/>
-      <c r="AC146" s="4"/>
-      <c r="AD146" s="4"/>
-    </row>
-    <row r="147" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B147" s="4"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4"/>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-    </row>
-    <row r="148" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B148" s="4"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-      <c r="AB148" s="4"/>
-      <c r="AC148" s="4"/>
-      <c r="AD148" s="4"/>
-    </row>
-    <row r="149" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
-      <c r="Y149" s="4"/>
-      <c r="Z149" s="4"/>
-      <c r="AA149" s="4"/>
-      <c r="AB149" s="4"/>
-      <c r="AC149" s="4"/>
-      <c r="AD149" s="4"/>
-    </row>
-    <row r="150" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
-      <c r="AA150" s="4"/>
-      <c r="AB150" s="4"/>
-      <c r="AC150" s="4"/>
-      <c r="AD150" s="4"/>
-    </row>
-    <row r="151" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B151" s="4"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
-      <c r="Y151" s="4"/>
-      <c r="Z151" s="4"/>
-      <c r="AA151" s="4"/>
-      <c r="AB151" s="4"/>
-      <c r="AC151" s="4"/>
-      <c r="AD151" s="4"/>
-    </row>
-    <row r="152" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
-      <c r="Y152" s="4"/>
-      <c r="Z152" s="4"/>
-      <c r="AA152" s="4"/>
-      <c r="AB152" s="4"/>
-      <c r="AC152" s="4"/>
-      <c r="AD152" s="4"/>
-    </row>
-    <row r="153" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B153" s="4"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
-      <c r="Y153" s="4"/>
-      <c r="Z153" s="4"/>
-      <c r="AA153" s="4"/>
-      <c r="AB153" s="4"/>
-      <c r="AC153" s="4"/>
-      <c r="AD153" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:X1"/>

--- a/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
+++ b/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Desktop\Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCEB0B-24B9-4009-B108-F55E6936CECD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832913D7-A335-4122-9732-2464FB0B748C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>Completed</t>
@@ -480,7 +477,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -966,9 +963,9 @@
   </sheetPr>
   <dimension ref="B1:AD123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1091,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1137,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1151,7 +1148,9 @@
       <c r="K4" s="9">
         <v>0</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="4"/>
@@ -1188,7 +1187,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="9">
         <v>4</v>
@@ -1202,7 +1201,9 @@
       <c r="K5" s="9">
         <v>2</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="4"/>
@@ -1239,7 +1240,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1253,7 +1254,9 @@
       <c r="K6" s="9">
         <v>0.5</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="4"/>
@@ -1290,7 +1293,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1304,7 +1307,9 @@
       <c r="K7" s="9">
         <v>0</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="4"/>
@@ -1394,7 +1399,9 @@
       <c r="K9" s="9">
         <v>1</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="4"/>
@@ -1427,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1470,7 +1477,7 @@
         <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1484,7 +1491,9 @@
       <c r="K11" s="9">
         <v>0</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="4"/>
@@ -1521,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="9">
         <v>2</v>
@@ -1535,7 +1544,9 @@
       <c r="K12" s="9">
         <v>0</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="4"/>
@@ -1557,7 +1568,7 @@
     </row>
     <row r="13" spans="2:30" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -1572,7 +1583,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -1586,7 +1597,9 @@
       <c r="K13" s="9">
         <v>0</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="4"/>
@@ -1662,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -1676,7 +1689,9 @@
       <c r="K15" s="9">
         <v>1</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="4"/>
@@ -1713,7 +1728,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="9">
         <v>4</v>
@@ -1727,7 +1742,9 @@
       <c r="K16" s="9">
         <v>0</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="4"/>
@@ -1764,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="9">
         <v>2</v>
@@ -1778,7 +1795,9 @@
       <c r="K17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="4"/>
@@ -1854,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
@@ -1868,7 +1887,9 @@
       <c r="K19" s="9">
         <v>0</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="4"/>
@@ -1890,7 +1911,7 @@
     </row>
     <row r="20" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
@@ -1919,7 +1940,9 @@
       <c r="K20" s="9">
         <v>0.5</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="9">
+        <v>0.25</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="4"/>
@@ -1995,7 +2018,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="9">
         <v>2</v>
@@ -2009,7 +2032,9 @@
       <c r="K22" s="9">
         <v>0</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="4"/>
@@ -2046,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
@@ -2060,7 +2085,9 @@
       <c r="K23" s="9">
         <v>1</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="4"/>
@@ -2093,7 +2120,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2136,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="9">
         <v>3</v>
@@ -2150,7 +2177,9 @@
       <c r="K25" s="9">
         <v>0</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="4"/>
@@ -2172,7 +2201,7 @@
     </row>
     <row r="26" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9">
         <v>6</v>
@@ -2187,7 +2216,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="9">
         <v>3</v>
@@ -2201,7 +2230,9 @@
       <c r="K26" s="9">
         <v>0</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="4"/>
@@ -2223,7 +2254,7 @@
     </row>
     <row r="27" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
@@ -2238,7 +2269,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="9">
         <v>2</v>
@@ -2252,7 +2283,9 @@
       <c r="K27" s="9">
         <v>2</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="4"/>
@@ -2299,7 +2332,7 @@
       </c>
       <c r="L28" s="5">
         <f>SUM(L3:L27)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M28" s="5">
         <f>SUM(M3:M27)</f>

--- a/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
+++ b/Sprint 2/Sprint Backlog/Sprint 2 Backlog and Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Desktop\Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832913D7-A335-4122-9732-2464FB0B748C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB83FC-3669-489D-A479-9F68C6D33F23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Agile Sprint Backlog - BLANK" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog - BLANK'!$B$2:$X$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog - BLANK'!$B$2:$W$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -60,9 +60,6 @@
     <t>DAY 5</t>
   </si>
   <si>
-    <t>SPRINT REVIEW</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -205,6 +199,27 @@
   </si>
   <si>
     <t>Task: Spike - Research how to let the user to select something from a list of results</t>
+  </si>
+  <si>
+    <t>Arran Roy, Kyle Leggate, Melvin Binu</t>
+  </si>
+  <si>
+    <t>Task: Integrate range features into the main program</t>
+  </si>
+  <si>
+    <t>Partially Complete</t>
+  </si>
+  <si>
+    <t>Task: Integrate all functions of the user story into the main program</t>
+  </si>
+  <si>
+    <t>Task: Integrate the functions of the user story into the main program</t>
+  </si>
+  <si>
+    <t>Paul Ritch, Kyle Leggate</t>
+  </si>
+  <si>
+    <t>Task: Review pull requests and approve/finalise integration</t>
   </si>
 </sst>
 </file>
@@ -434,9 +449,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog - BLANK'!$I$2:$N$2</c:f>
+              <c:f>'Agile Sprint Backlog - BLANK'!$I$2:$M$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DAY 1</c:v>
                 </c:pt>
@@ -452,38 +467,32 @@
                 <c:pt idx="4">
                   <c:v>DAY 5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>SPRINT REVIEW</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog - BLANK'!$H$28:$N$28</c:f>
+              <c:f>'Agile Sprint Backlog - BLANK'!$H$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.83</c:v>
+                  <c:v>33.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.25</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,15 +605,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>403860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -961,11 +970,11 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD123"/>
+  <dimension ref="B1:AC128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -979,18 +988,17 @@
     <col min="7" max="7" width="18.796875" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.796875" style="3" customWidth="1"/>
     <col min="9" max="13" width="10.796875" style="3"/>
-    <col min="14" max="14" width="10.796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="1.796875" style="3" customWidth="1"/>
-    <col min="16" max="22" width="10.796875" style="3"/>
-    <col min="23" max="23" width="10.796875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="10.796875" style="3"/>
-    <col min="25" max="25" width="3.296875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="10.796875" style="3"/>
+    <col min="14" max="14" width="1.796875" style="3" customWidth="1"/>
+    <col min="15" max="21" width="10.796875" style="3"/>
+    <col min="22" max="22" width="10.796875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.796875" style="3"/>
+    <col min="24" max="24" width="3.296875" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="49.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:29" ht="49.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1013,17 +1021,16 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
+      <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" spans="2:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:29" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -1032,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
@@ -1058,9 +1065,7 @@
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -1076,11 +1081,10 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-    </row>
-    <row r="3" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:29" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -1088,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1099,7 +1103,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1115,26 +1119,25 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="2:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:29" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1151,8 +1154,10 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1168,26 +1173,25 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-    </row>
-    <row r="5" spans="2:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:29" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9">
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" s="9">
         <v>4</v>
@@ -1204,8 +1208,10 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1221,26 +1227,25 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="2:30" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:29" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9">
         <v>6</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1257,8 +1262,10 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1274,26 +1281,25 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="2:30" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:29" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9">
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="9">
         <v>1</v>
@@ -1310,8 +1316,10 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1327,30 +1335,45 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="2:30" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+    </row>
+    <row r="8" spans="2:29" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="9">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1366,44 +1389,29 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="2:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+    </row>
+    <row r="9" spans="2:29" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1419,30 +1427,45 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="2:30" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="10" spans="2:29" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1458,44 +1481,45 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="2:30" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:29" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="9">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
         <v>0.5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="M11" s="9">
         <v>0</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1511,44 +1535,29 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="2:30" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9">
+    </row>
+    <row r="12" spans="2:29" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1564,11 +1573,10 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="2:30" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -1580,19 +1588,19 @@
         <v>5</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -1600,8 +1608,10 @@
       <c r="L13" s="9">
         <v>0</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1617,30 +1627,45 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="2:30" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
+    </row>
+    <row r="14" spans="2:29" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1656,26 +1681,25 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="2:30" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -1684,16 +1708,18 @@
         <v>1</v>
       </c>
       <c r="J15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="9">
-        <v>1</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1709,44 +1735,29 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-    </row>
-    <row r="16" spans="2:30" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9">
-        <v>7</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="9">
-        <v>4</v>
-      </c>
-      <c r="I16" s="9">
-        <v>3</v>
-      </c>
-      <c r="J16" s="9">
-        <v>2</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+    </row>
+    <row r="16" spans="2:29" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1762,44 +1773,45 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="2:30" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:29" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
         <v>0</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1815,30 +1827,45 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="2:30" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8">
+    </row>
+    <row r="18" spans="2:29" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="9">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="9">
         <v>4</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="I18" s="9">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1854,44 +1881,45 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="2:30" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:29" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1907,44 +1935,45 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:29" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E20" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="H20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="9">
         <v>1</v>
       </c>
       <c r="K20" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L20" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1960,22 +1989,21 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="2:30" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:29" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1983,7 +2011,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1999,35 +2027,34 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="2:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:29" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
@@ -2035,8 +2062,10 @@
       <c r="L22" s="9">
         <v>0</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2052,44 +2081,45 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="2:30" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
       </c>
       <c r="K23" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="9">
-        <v>1</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2105,22 +2135,21 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="2:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:29" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2128,7 +2157,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2144,35 +2173,34 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="2:30" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E25" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="H25" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="9">
         <v>0</v>
@@ -2180,8 +2208,10 @@
       <c r="L25" s="9">
         <v>0</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2197,44 +2227,45 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:29" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C26" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E26" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2250,44 +2281,45 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="2:30" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:29" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E27" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2303,45 +2335,29 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="2:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5">
-        <f>SUM(H3:H27)</f>
-        <v>34</v>
-      </c>
-      <c r="I28" s="5">
-        <f>SUM(I4:I27)</f>
-        <v>26.83</v>
-      </c>
-      <c r="J28" s="5">
-        <f>SUM(J3:J27)</f>
-        <v>20.5</v>
-      </c>
-      <c r="K28" s="5">
-        <f>SUM(K3:K27)</f>
-        <v>10</v>
-      </c>
-      <c r="L28" s="5">
-        <f>SUM(L3:L27)</f>
-        <v>2.25</v>
-      </c>
-      <c r="M28" s="5">
-        <f>SUM(M3:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="5">
-        <f>SUM(N3:N27)</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="28" spans="2:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2357,21 +2373,44 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+    </row>
+    <row r="29" spans="2:29" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="9">
+        <v>3</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2388,21 +2427,44 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+    </row>
+    <row r="30" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="9">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3</v>
+      </c>
+      <c r="I30" s="9">
+        <v>3</v>
+      </c>
+      <c r="J30" s="9">
+        <v>3</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2419,21 +2481,44 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+    </row>
+    <row r="31" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="9">
+        <v>2</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2</v>
+      </c>
+      <c r="K31" s="9">
+        <v>2</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2450,21 +2535,44 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+    </row>
+    <row r="32" spans="2:29" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="9">
+        <v>9</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2481,21 +2589,40 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+    </row>
+    <row r="33" spans="2:29" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
+        <f>SUM(H3:H32)</f>
+        <v>41</v>
+      </c>
+      <c r="I33" s="5">
+        <f>SUM(I4:I32)</f>
+        <v>33.83</v>
+      </c>
+      <c r="J33" s="5">
+        <f>SUM(J3:J32)</f>
+        <v>27.5</v>
+      </c>
+      <c r="K33" s="5">
+        <f>SUM(K3:K32)</f>
+        <v>17</v>
+      </c>
+      <c r="L33" s="5">
+        <f>SUM(L3:L32)</f>
+        <v>6.75</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M3:M32)</f>
+        <v>1.25</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2512,9 +2639,8 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
@@ -2543,9 +2669,8 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -2574,9 +2699,8 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -2605,9 +2729,8 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -2636,9 +2759,8 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
@@ -2667,9 +2789,8 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
@@ -2698,9 +2819,8 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -2729,9 +2849,8 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -2760,9 +2879,8 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2791,9 +2909,8 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2822,9 +2939,8 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2853,9 +2969,8 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2884,9 +2999,8 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -2915,9 +3029,8 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -2946,9 +3059,8 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -2977,9 +3089,8 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -3008,9 +3119,8 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -3039,9 +3149,8 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -3070,9 +3179,8 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -3101,9 +3209,8 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -3132,9 +3239,8 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -3163,9 +3269,8 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -3194,9 +3299,8 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -3225,9 +3329,8 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -3256,9 +3359,8 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -3287,9 +3389,8 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -3318,9 +3419,8 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -3349,9 +3449,8 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -3380,9 +3479,8 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -3411,9 +3509,8 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -3442,9 +3539,8 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -3473,9 +3569,8 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -3504,9 +3599,8 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -3535,9 +3629,8 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3566,9 +3659,8 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3597,9 +3689,8 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3628,9 +3719,8 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3659,9 +3749,8 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3690,9 +3779,8 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3721,9 +3809,8 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3752,9 +3839,8 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3783,9 +3869,8 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -3814,9 +3899,8 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -3845,9 +3929,8 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -3876,9 +3959,8 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -3907,9 +3989,8 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -3938,9 +4019,8 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-    </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -3969,9 +4049,8 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -4000,9 +4079,8 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -4031,9 +4109,8 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -4062,9 +4139,8 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -4093,9 +4169,8 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -4124,9 +4199,8 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -4155,9 +4229,8 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -4186,9 +4259,8 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -4217,9 +4289,8 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-    </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -4248,9 +4319,8 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-    </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -4279,9 +4349,8 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-    </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -4310,9 +4379,8 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-    </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -4341,9 +4409,8 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-    </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -4372,9 +4439,8 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
-    </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -4403,9 +4469,8 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
-      <c r="AD94" s="4"/>
-    </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -4434,9 +4499,8 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-    </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -4465,9 +4529,8 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -4496,9 +4559,8 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
-      <c r="AD97" s="4"/>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -4527,9 +4589,8 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
-      <c r="AD98" s="4"/>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -4558,9 +4619,8 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -4589,9 +4649,8 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
-      <c r="AD100" s="4"/>
-    </row>
-    <row r="101" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -4620,9 +4679,8 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
-      <c r="AD101" s="4"/>
-    </row>
-    <row r="102" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -4651,9 +4709,8 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-    </row>
-    <row r="103" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -4682,9 +4739,8 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-    </row>
-    <row r="104" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -4713,9 +4769,8 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
-    </row>
-    <row r="105" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -4744,9 +4799,8 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-    </row>
-    <row r="106" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -4775,9 +4829,8 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
-      <c r="AD106" s="4"/>
-    </row>
-    <row r="107" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -4806,9 +4859,8 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
-      <c r="AD107" s="4"/>
-    </row>
-    <row r="108" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -4837,9 +4889,8 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
-      <c r="AD108" s="4"/>
-    </row>
-    <row r="109" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -4868,9 +4919,8 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
-      <c r="AD109" s="4"/>
-    </row>
-    <row r="110" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -4899,9 +4949,8 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
-      <c r="AD110" s="4"/>
-    </row>
-    <row r="111" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -4930,9 +4979,8 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
-      <c r="AD111" s="4"/>
-    </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -4961,9 +5009,8 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
-      <c r="AD112" s="4"/>
-    </row>
-    <row r="113" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -4992,9 +5039,8 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
-      <c r="AD113" s="4"/>
-    </row>
-    <row r="114" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -5023,9 +5069,8 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
-      <c r="AD114" s="4"/>
-    </row>
-    <row r="115" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -5054,9 +5099,8 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
-      <c r="AD115" s="4"/>
-    </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -5085,9 +5129,8 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
-      <c r="AD116" s="4"/>
-    </row>
-    <row r="117" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -5116,9 +5159,8 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-    </row>
-    <row r="118" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -5147,9 +5189,8 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
-      <c r="AD118" s="4"/>
-    </row>
-    <row r="119" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -5178,9 +5219,8 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
-      <c r="AD119" s="4"/>
-    </row>
-    <row r="120" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -5209,9 +5249,8 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
-      <c r="AD120" s="4"/>
-    </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -5240,9 +5279,8 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
-      <c r="AD121" s="4"/>
-    </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -5271,9 +5309,8 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-    </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
@@ -5302,11 +5339,160 @@
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
-      <c r="AD123" s="4"/>
+    </row>
+    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+    </row>
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+    </row>
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+      <c r="AB126" s="4"/>
+      <c r="AC126" s="4"/>
+    </row>
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+    </row>
+    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
+      <c r="AB128" s="4"/>
+      <c r="AC128" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B1:W1"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
